--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1118.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1118.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.089537027346742</v>
+        <v>1.169133186340332</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.377488851547241</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.382237434387207</v>
       </c>
       <c r="E1">
-        <v>1.184747849812677</v>
+        <v>1.211309909820557</v>
       </c>
     </row>
   </sheetData>
